--- a/src/main/resources/Etsy_template.xlsx
+++ b/src/main/resources/Etsy_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Etsy - BRUTTO" sheetId="35" r:id="rId1"/>
@@ -709,7 +709,7 @@
   </sheetPr>
   <dimension ref="A2:L100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -1939,7 +1939,7 @@
   </sheetPr>
   <dimension ref="A2:L100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1950,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
